--- a/Code/Matlab/Will_data.xlsx
+++ b/Code/Matlab/Will_data.xlsx
@@ -13,7 +13,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <si>
+    <t>K_fit_room1_1</t>
+  </si>
+  <si>
+    <t>K_fit_room1_2</t>
+  </si>
+  <si>
+    <t>K_fit_room1_3</t>
+  </si>
+  <si>
+    <t>K_fit_room1_4</t>
+  </si>
+  <si>
+    <t>K_fit_room1_5</t>
+  </si>
+  <si>
+    <t>K_fit_room2_1</t>
+  </si>
+  <si>
+    <t>K_fit_room2_2</t>
+  </si>
+  <si>
+    <t>K_fit_room2_3</t>
+  </si>
+  <si>
+    <t>K_fit_room2_4</t>
+  </si>
+  <si>
+    <t>K_fit_room2_5</t>
+  </si>
+  <si>
+    <t>K_fit_room3_1</t>
+  </si>
+  <si>
+    <t>K_fit_room3_2</t>
+  </si>
+  <si>
+    <t>K_fit_room3_3</t>
+  </si>
+  <si>
+    <t>K_fit_room3_4</t>
+  </si>
+  <si>
+    <t>K_fit_room3_5</t>
+  </si>
+  <si>
+    <t>K_fit_room4_1</t>
+  </si>
+  <si>
+    <t>K_fit_room4_2</t>
+  </si>
+  <si>
+    <t>K_fit_room4_3</t>
+  </si>
+  <si>
+    <t>K_fit_room4_4</t>
+  </si>
+  <si>
+    <t>K_fit_room4_5</t>
+  </si>
+  <si>
+    <t>K_fit_room5_1</t>
+  </si>
+  <si>
+    <t>K_fit_room5_2</t>
+  </si>
+  <si>
+    <t>K_fit_room5_3</t>
+  </si>
+  <si>
+    <t>K_fit_room5_4</t>
+  </si>
+  <si>
+    <t>K_fit_room5_5</t>
+  </si>
+  <si>
+    <t>K_fit_room6_1</t>
+  </si>
+  <si>
+    <t>K_fit_room6_2</t>
+  </si>
+  <si>
+    <t>K_fit_room6_3</t>
+  </si>
+  <si>
+    <t>K_fit_room6_4</t>
+  </si>
+  <si>
+    <t>K_fit_room6_5</t>
+  </si>
   <si>
     <t>K_fit_room1_1</t>
   </si>
@@ -213,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,14 +313,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,94 +369,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
